--- a/data/item.xlsx
+++ b/data/item.xlsx
@@ -122,8 +122,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -764,7 +765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,6 +782,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,7 +1124,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1150,7 +1154,7 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1179,7 +1183,7 @@
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1205,10 +1209,10 @@
       <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -1222,65 +1226,72 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>10001</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
         <v>2</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>10002</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
         <v>2</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>20001</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>105</v>
       </c>
-      <c r="E6" s="1">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
         <v>2</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="6">
         <v>1</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="6">
         <v>100</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1288,25 +1299,26 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <v>20002</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <v>105</v>
       </c>
-      <c r="E7" s="1">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
         <v>2</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="6">
         <v>150</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1314,28 +1326,28 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1">
+      <c r="A8" s="6">
         <v>30001</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <v>106</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <v>30001</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="6">
         <v>1</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="6">
         <v>1000</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1343,28 +1355,28 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="1">
+      <c r="A9" s="6">
         <v>30002</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <v>106</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="6">
         <v>30002</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="6">
         <v>3000</v>
       </c>
       <c r="I9" s="1" t="s">

--- a/data/item.xlsx
+++ b/data/item.xlsx
@@ -1124,7 +1124,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>

--- a/data/item.xlsx
+++ b/data/item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="11200"/>
+    <workbookView windowWidth="12040" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1124,7 +1124,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>

--- a/data/item.xlsx
+++ b/data/item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12040" windowHeight="8460"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -76,9 +76,6 @@
     <t>元宝</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
     <t>元宝用于商品购买</t>
   </si>
   <si>
@@ -91,28 +88,16 @@
     <t>铜矿石</t>
   </si>
   <si>
-    <t>10277</t>
-  </si>
-  <si>
     <t>装备锻造所用材料</t>
   </si>
   <si>
     <t>铁矿石</t>
   </si>
   <si>
-    <t>10280</t>
-  </si>
-  <si>
     <t>乌木剑</t>
   </si>
   <si>
-    <t>01001</t>
-  </si>
-  <si>
     <t>裁决</t>
-  </si>
-  <si>
-    <t>01011</t>
   </si>
   <si>
     <t>裁决之杖</t>
@@ -123,11 +108,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -138,8 +123,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,39 +206,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,6 +238,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -221,62 +260,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,187 +294,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,15 +503,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -543,16 +519,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,23 +547,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,153 +591,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -772,87 +757,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1119,23 +1101,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9.14285714285714" style="1"/>
-    <col min="3" max="4" width="11.6071428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5357142857143" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.97321428571429" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.3571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1428571428571" style="1" customWidth="1"/>
-    <col min="9" max="9" width="46.4196428571429" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.14166666666667" style="1"/>
+    <col min="3" max="4" width="11.6083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.975" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.3583333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1416666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="46.4166666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1154,7 +1136,7 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1168,219 +1150,219 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="6">
+      <c r="A4" s="2">
         <v>10001</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="6">
+      <c r="A5" s="2">
         <v>10002</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
-        <v>2</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="6">
+      <c r="A6" s="2">
         <v>20001</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
+        <v>105</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="10">
+        <v>10277</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>100</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="6">
-        <v>105</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6">
-        <v>100</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="6">
+      <c r="A7" s="2">
         <v>20002</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="6">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2">
         <v>105</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F7" s="10">
+        <v>10280</v>
+      </c>
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="2">
         <v>150</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="6">
+      <c r="A8" s="2">
         <v>30001</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="6">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2">
         <v>106</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="2">
         <v>30001</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="10">
+        <v>30001</v>
+      </c>
+      <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="2">
         <v>1000</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="6">
+      <c r="A9" s="2">
         <v>30002</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="6">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2">
         <v>106</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="2">
         <v>30002</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="2">
         <v>4</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="F9" s="10">
+        <v>30002</v>
+      </c>
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="2">
         <v>3000</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/item.xlsx
+++ b/data/item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24860" windowHeight="10600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>id</t>
   </si>
@@ -108,11 +108,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -120,6 +120,104 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,7 +238,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,119 +262,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,6 +294,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -306,12 +324,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -324,157 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,6 +503,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -514,41 +532,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,6 +560,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -592,11 +586,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,148 +605,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -763,16 +763,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -787,54 +787,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1101,23 +1101,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="2" width="9.14166666666667" style="1"/>
-    <col min="3" max="4" width="11.6083333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.975" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.3583333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1416666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="46.4166666666667" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.14285714285714" style="1"/>
+    <col min="3" max="4" width="11.6071428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5357142857143" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.97321428571429" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.3571428571429" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1428571428571" style="1" customWidth="1"/>
+    <col min="9" max="9" width="46.4196428571429" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1136,7 +1136,7 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1150,45 +1150,45 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1197,13 +1197,13 @@
       <c r="F3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/data/item.xlsx
+++ b/data/item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="10600"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>裁决之杖</t>
+  </si>
+  <si>
+    <t>屠龙刀</t>
   </si>
 </sst>
 </file>
@@ -109,9 +112,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -144,6 +147,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -152,8 +169,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -161,7 +232,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,9 +240,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,7 +256,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,74 +265,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,187 +297,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,16 +525,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,22 +563,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,17 +593,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,148 +608,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -763,16 +766,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -787,54 +790,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1101,23 +1104,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9.14285714285714" style="1"/>
-    <col min="3" max="4" width="11.6071428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5357142857143" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.97321428571429" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.3571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1428571428571" style="1" customWidth="1"/>
-    <col min="9" max="9" width="46.4196428571429" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.14166666666667" style="1"/>
+    <col min="3" max="4" width="11.6083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.975" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.3583333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1416666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="46.4166666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1136,7 +1139,7 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1150,45 +1153,45 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1197,13 +1200,13 @@
       <c r="F3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1224,8 +1227,12 @@
       <c r="F4" s="10">
         <v>10000</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,8 +1254,12 @@
       <c r="F5" s="10">
         <v>10000</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1363,6 +1374,35 @@
       </c>
       <c r="I9" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
+        <v>30003</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2">
+        <v>106</v>
+      </c>
+      <c r="D10" s="2">
+        <v>30003</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="10">
+        <v>30003</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
